--- a/data/scenario_a_results.xlsx
+++ b/data/scenario_a_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,44 +429,54 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Total Material (Metric Tons)</t>
+          <t>Total Material (Tons)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Total Annual Capacity (Tons/Year)</t>
+          <t>Timeline (Years)</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Timeline (Years)</t>
+          <t>Completion Year</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Unit Cost (per Ton)</t>
+          <t>Unit Transport Cost (per Ton)</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Total Cost (10 Billion (百亿元))</t>
+          <t>Annual Maintenance Cost</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Annual Cost (10 Billion (百亿元))</t>
+          <t>Total Transport Cost (Billion)</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Completion Year</t>
+          <t>Total Maintenance Cost (Billion)</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>GRAND TOTAL COST (Billion)</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Avg Annual Spending (Billion)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A - Space Elevator Only</t>
+          <t>A - Space Elevator Only (With Maint.)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -474,27 +484,33 @@
           <t>100,000,000</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>537,000</t>
-        </is>
+      <c r="C2" t="n">
+        <v>186.22</v>
       </c>
       <c r="D2" t="n">
-        <v>186.22</v>
+        <v>2236.2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>600,000</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>6000</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12 Billion</t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>32.22</v>
+        <v>60000</v>
       </c>
       <c r="H2" t="n">
-        <v>2236.2</v>
+        <v>767.23</v>
+      </c>
+      <c r="I2" t="n">
+        <v>60767.23</v>
+      </c>
+      <c r="J2" t="n">
+        <v>326.32</v>
       </c>
     </row>
   </sheetData>

--- a/data/scenario_a_results.xlsx
+++ b/data/scenario_a_results.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>600,000</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>60000</v>
+        <v>6000</v>
       </c>
       <c r="H2" t="n">
         <v>767.23</v>
       </c>
       <c r="I2" t="n">
-        <v>60767.23</v>
+        <v>6767.23</v>
       </c>
       <c r="J2" t="n">
-        <v>326.32</v>
+        <v>36.34</v>
       </c>
     </row>
   </sheetData>
